--- a/3_Marktanalyse/6_Softwareanforderungsanalyse/Anlage_Softwareanforderungen.xlsx
+++ b/3_Marktanalyse/6_Softwareanforderungsanalyse/Anlage_Softwareanforderungen.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bepZ\Documents\schule\GitHub\mp_gproz_scrumiverse\3_Marktanalyse\6_Softwareanforderungsanalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\slothking\Dokumente\Ausbildung\Berufsschule\Mittelstufenprojekt\mp_gproz_scrumiverse\3_Marktanalyse\6_Softwareanforderungsanalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
     <sheet name="Requirements (short)" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="64">
   <si>
     <t>Der Benutzer will ein Account erstellen können.</t>
   </si>
@@ -208,12 +208,21 @@
   </si>
   <si>
     <t>Der Benutzer will eine dauerhafte Verfügbarkeit der Webanwendung haben.</t>
+  </si>
+  <si>
+    <t>Der Benutzer will eine intuitive Oberfläche</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Benutzer will eine Einführung in Scrum Projektplanung </t>
+  </si>
+  <si>
+    <t>Der Benutzer will zukünftig eine auf einem Server hochladbare Version haben (Enterprise)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1030,7 +1039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
@@ -1106,6 +1115,30 @@
         <v>60</v>
       </c>
     </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
